--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.menu.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/admin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD92D066-A1C6-3D41-886C-14C45C5DFCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A0D170-E67D-4F4E-A2DD-F52DDE430A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="10480" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
@@ -24,8 +24,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -69,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>菜单定制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>规则编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,6 +269,10 @@
   </si>
   <si>
     <t>JSON:plugin/ke/admin.menu/ui.condition.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -903,7 +906,7 @@
   <dimension ref="A3:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -934,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
@@ -954,34 +957,34 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -992,34 +995,34 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1027,23 +1030,23 @@
         <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1092,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>2</v>
@@ -1109,40 +1112,40 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1150,55 +1153,55 @@
         <v>0</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="26" t="str">
         <f>'DATA-RULE'!A$6</f>
         <v>f37f66c0-40a9-4816-ade2-4230f4ee045f</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
